--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>572993.6190112259</v>
+        <v>515726.6621658594</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8547013.059513934</v>
+        <v>8088944.869226767</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8506890.903312847</v>
+        <v>8722880.896883903</v>
       </c>
     </row>
     <row r="11">
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663197</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G2" t="n">
-        <v>165.1725371760943</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.1725371760943</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>144.542497073661</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,22 +788,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>38.11163636040545</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402859</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>52.21594625443434</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G5" t="n">
-        <v>88.09081815943081</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H5" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.08171901666378</v>
+        <v>77.08171901666381</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>88.09081815943075</v>
       </c>
     </row>
     <row r="6">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -986,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>87.75649380214162</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>52.21594625443432</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>187.52558716632</v>
+        <v>255.4542145224946</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.08171901666375</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>88.09081815943087</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>57.41043345732432</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>187.52558716632</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>187.52558716632</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>52.21594625443453</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>220.0133056736529</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>201.6622187863195</v>
+        <v>101.0019353556647</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>251.2285928046449</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>87.93270968653104</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>321.0102312166692</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>5.732180395783312</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1694,7 +1694,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>61.36917500887013</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>167.183631058031</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>50.92111676353509</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>55.82801639720989</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>19.26836562025015</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>87.93270968653134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2089,19 +2089,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>83.13723023285972</v>
+        <v>45.86786904372472</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>107.3504831369562</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>55.6790433100436</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2335,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>288.2822493900566</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>59.42500558274017</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>54.45803047044427</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>20.95866062610969</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>276.1798220258322</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>251.2852794514148</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2648,7 +2648,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657079</v>
       </c>
       <c r="H27" t="n">
         <v>89.59687541851115</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>54.45803047044429</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>221.7048515690722</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>211.0785184722399</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>99.44060882562916</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2955,13 +2955,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>76.28380354614096</v>
+        <v>73.08937855085985</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>361.6320809382847</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>39.32117841962576</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>146.842886239454</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>54.51165059784287</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3274,19 +3274,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>224.3548762208278</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>201.2322393582085</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>131.5522128412688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>124.4808309317252</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3520,10 +3520,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>72.33270390033967</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>238.7809396517848</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>54.45803047044415</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>6.944023270396492</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>79.03187764303514</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>168.1158122680976</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>28.31233659742232</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>18.56488642963162</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,19 +3985,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>229.7965692041376</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>332.9457957629311</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4137,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>19.91770302131553</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>20.95866062610916</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>371.2627786323097</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="C2" t="n">
-        <v>371.2627786323097</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="D2" t="n">
-        <v>371.2627786323097</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="E2" t="n">
-        <v>181.8429936158251</v>
+        <v>393.841617006275</v>
       </c>
       <c r="F2" t="n">
-        <v>181.8429936158251</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678535</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159059007</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.874309407919</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644759</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.461172602026</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V2" t="n">
-        <v>560.6825636487943</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="W2" t="n">
-        <v>560.6825636487943</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="X2" t="n">
-        <v>560.6825636487943</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="Y2" t="n">
-        <v>371.2627786323097</v>
+        <v>560.6825636487947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330558</v>
+        <v>409.399488203391</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330558</v>
+        <v>409.399488203391</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330558</v>
+        <v>263.3969659067637</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330558</v>
+        <v>263.3969659067637</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330558</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330558</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772646</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.769091114024</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546594</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476343</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017056</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652789</v>
+        <v>598.8192732198758</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652789</v>
+        <v>598.8192732198758</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487943</v>
+        <v>598.8192732198758</v>
       </c>
       <c r="V3" t="n">
-        <v>371.2627786323097</v>
+        <v>409.399488203391</v>
       </c>
       <c r="W3" t="n">
-        <v>371.2627786323097</v>
+        <v>409.399488203391</v>
       </c>
       <c r="X3" t="n">
-        <v>181.8429936158251</v>
+        <v>409.399488203391</v>
       </c>
       <c r="Y3" t="n">
-        <v>181.8429936158251</v>
+        <v>409.399488203391</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828946</v>
+        <v>697.3589686102953</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828946</v>
+        <v>697.3589686102953</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828946</v>
+        <v>697.3589686102953</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828946</v>
+        <v>697.3589686102953</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702828946</v>
+        <v>697.3589686102953</v>
       </c>
       <c r="G4" t="n">
-        <v>67.74542702828946</v>
+        <v>697.3589686102953</v>
       </c>
       <c r="H4" t="n">
-        <v>67.74542702828946</v>
+        <v>697.3589686102953</v>
       </c>
       <c r="I4" t="n">
-        <v>67.74542702828946</v>
+        <v>697.3589686102953</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404153</v>
+        <v>697.3589686102953</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330558</v>
+        <v>697.3589686102953</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230163</v>
+        <v>709.3965921992915</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170695</v>
+        <v>725.3468614886968</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396302</v>
+        <v>748.775394930953</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828946</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828946</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828946</v>
+        <v>697.3589686102953</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828946</v>
+        <v>697.3589686102953</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828946</v>
+        <v>697.3589686102953</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828946</v>
+        <v>697.3589686102953</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828946</v>
+        <v>697.3589686102953</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828946</v>
+        <v>697.3589686102953</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828946</v>
+        <v>697.3589686102953</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828946</v>
+        <v>697.3589686102953</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828946</v>
+        <v>697.3589686102953</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>672.2420264262255</v>
+        <v>393.841617006275</v>
       </c>
       <c r="C5" t="n">
-        <v>672.2420264262255</v>
+        <v>393.841617006275</v>
       </c>
       <c r="D5" t="n">
-        <v>672.2420264262255</v>
+        <v>393.841617006275</v>
       </c>
       <c r="E5" t="n">
-        <v>482.8222414097407</v>
+        <v>393.841617006275</v>
       </c>
       <c r="F5" t="n">
-        <v>293.4024563932559</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G5" t="n">
-        <v>204.4218319897904</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H5" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I5" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678535</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K5" t="n">
         <v>80.81213159058962</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079189</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M5" t="n">
         <v>347.1218190644756</v>
@@ -4582,37 +4582,37 @@
         <v>509.495204112383</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R5" t="n">
-        <v>672.2420264262255</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="S5" t="n">
-        <v>672.2420264262255</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="T5" t="n">
-        <v>672.2420264262255</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="U5" t="n">
-        <v>672.2420264262255</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="V5" t="n">
-        <v>672.2420264262255</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="W5" t="n">
-        <v>672.2420264262255</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="X5" t="n">
-        <v>672.2420264262255</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="Y5" t="n">
-        <v>672.2420264262255</v>
+        <v>583.2614020227597</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>181.8429936158253</v>
+        <v>241.1841511833227</v>
       </c>
       <c r="C6" t="n">
-        <v>15.0020469733056</v>
+        <v>241.1841511833227</v>
       </c>
       <c r="D6" t="n">
-        <v>15.0020469733056</v>
+        <v>241.1841511833227</v>
       </c>
       <c r="E6" t="n">
-        <v>15.0020469733056</v>
+        <v>241.1841511833227</v>
       </c>
       <c r="F6" t="n">
-        <v>15.0020469733056</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G6" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H6" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I6" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J6" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017058</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="S6" t="n">
-        <v>750.1023486652798</v>
+        <v>598.8192732198755</v>
       </c>
       <c r="T6" t="n">
-        <v>750.1023486652798</v>
+        <v>598.8192732198755</v>
       </c>
       <c r="U6" t="n">
-        <v>560.6825636487949</v>
+        <v>598.8192732198755</v>
       </c>
       <c r="V6" t="n">
-        <v>371.2627786323101</v>
+        <v>598.8192732198755</v>
       </c>
       <c r="W6" t="n">
-        <v>181.8429936158253</v>
+        <v>409.3994882033908</v>
       </c>
       <c r="X6" t="n">
-        <v>181.8429936158253</v>
+        <v>409.3994882033908</v>
       </c>
       <c r="Y6" t="n">
-        <v>181.8429936158253</v>
+        <v>409.3994882033908</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230176</v>
+        <v>27.03967056230173</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170711</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396326</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="R7" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="S7" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="T7" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="U7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>583.26140202276</v>
+        <v>687.1920092600692</v>
       </c>
       <c r="C8" t="n">
-        <v>583.26140202276</v>
+        <v>687.1920092600692</v>
       </c>
       <c r="D8" t="n">
-        <v>583.26140202276</v>
+        <v>687.1920092600692</v>
       </c>
       <c r="E8" t="n">
-        <v>583.26140202276</v>
+        <v>301.403756661825</v>
       </c>
       <c r="F8" t="n">
-        <v>393.8416170062752</v>
+        <v>301.403756661825</v>
       </c>
       <c r="G8" t="n">
-        <v>204.4218319897904</v>
+        <v>301.403756661825</v>
       </c>
       <c r="H8" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678478</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058944</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079185</v>
+        <v>669.5878927711872</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644755</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123829</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985583</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020266</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652798</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>672.2420264262255</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>672.2420264262255</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>672.2420264262255</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>672.2420264262255</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V8" t="n">
-        <v>583.26140202276</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="W8" t="n">
-        <v>583.26140202276</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="X8" t="n">
-        <v>583.26140202276</v>
+        <v>1463.931181300003</v>
       </c>
       <c r="Y8" t="n">
-        <v>583.26140202276</v>
+        <v>1073.791849324191</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>181.8429936158253</v>
+        <v>533.7044947829236</v>
       </c>
       <c r="C9" t="n">
-        <v>15.0020469733056</v>
+        <v>533.7044947829236</v>
       </c>
       <c r="D9" t="n">
-        <v>15.0020469733056</v>
+        <v>384.7700851216723</v>
       </c>
       <c r="E9" t="n">
-        <v>15.0020469733056</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="F9" t="n">
-        <v>15.0020469733056</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G9" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>15.00204697330553</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330553</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330553</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>67.1341887702421</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772649</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140244</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546602</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476349</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017064</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652798</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652798</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652798</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="T9" t="n">
-        <v>750.1023486652798</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="U9" t="n">
-        <v>750.1023486652798</v>
+        <v>1399.160796968469</v>
       </c>
       <c r="V9" t="n">
-        <v>750.1023486652798</v>
+        <v>1164.008688736726</v>
       </c>
       <c r="W9" t="n">
-        <v>560.6825636487949</v>
+        <v>909.7713320085245</v>
       </c>
       <c r="X9" t="n">
-        <v>371.2627786323101</v>
+        <v>701.9198318029917</v>
       </c>
       <c r="Y9" t="n">
-        <v>181.8429936158253</v>
+        <v>701.9198318029917</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C10" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D10" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E10" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>15.0020469733056</v>
+        <v>92.71685897981523</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230179</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170722</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396343</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702828998</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702828998</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702828998</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702828998</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>15.0020469733056</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>15.0020469733056</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U10" t="n">
-        <v>15.0020469733056</v>
+        <v>298.0536847439799</v>
       </c>
       <c r="V10" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="W10" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X10" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.167438673965</v>
+        <v>1888.09808975843</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>1519.135572818019</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.605821609171</v>
+        <v>2766.859418723277</v>
       </c>
       <c r="X11" t="n">
-        <v>3121.906610713899</v>
+        <v>2664.837261798364</v>
       </c>
       <c r="Y11" t="n">
-        <v>2731.767278738087</v>
+        <v>2274.697929822552</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R13" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S13" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T13" t="n">
-        <v>417.6040489720652</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U13" t="n">
-        <v>163.8377936138381</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="V13" t="n">
-        <v>163.8377936138381</v>
+        <v>155.3330353074673</v>
       </c>
       <c r="W13" t="n">
-        <v>163.8377936138381</v>
+        <v>155.3330353074673</v>
       </c>
       <c r="X13" t="n">
-        <v>163.8377936138381</v>
+        <v>155.3330353074673</v>
       </c>
       <c r="Y13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1232.248790760447</v>
+        <v>1914.669427940025</v>
       </c>
       <c r="C14" t="n">
-        <v>863.2862738200351</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D14" t="n">
-        <v>863.2862738200351</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E14" t="n">
-        <v>477.498021221791</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>66.51211643218342</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5305,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3319.815740401309</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>3066.285263675145</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V14" t="n">
-        <v>2735.222376331575</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W14" t="n">
-        <v>2382.45372106146</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="X14" t="n">
-        <v>2008.98796280038</v>
+        <v>2304.808759915837</v>
       </c>
       <c r="Y14" t="n">
-        <v>1618.848630824569</v>
+        <v>1914.669427940025</v>
       </c>
     </row>
     <row r="15">
@@ -5342,16 +5342,16 @@
         <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>128.5011820977088</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C16" t="n">
-        <v>128.5011820977088</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D16" t="n">
-        <v>128.5011820977088</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E16" t="n">
-        <v>128.5011820977088</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F16" t="n">
-        <v>128.5011820977088</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>128.5011820977088</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>128.5011820977088</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
@@ -5463,25 +5463,25 @@
         <v>831.0565485757129</v>
       </c>
       <c r="S16" t="n">
-        <v>639.3706644025392</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T16" t="n">
-        <v>417.6040489720652</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U16" t="n">
-        <v>128.5011820977088</v>
+        <v>662.1841939716412</v>
       </c>
       <c r="V16" t="n">
-        <v>128.5011820977088</v>
+        <v>662.1841939716412</v>
       </c>
       <c r="W16" t="n">
-        <v>128.5011820977088</v>
+        <v>662.1841939716412</v>
       </c>
       <c r="X16" t="n">
-        <v>128.5011820977088</v>
+        <v>434.1946430736239</v>
       </c>
       <c r="Y16" t="n">
-        <v>128.5011820977088</v>
+        <v>213.4020639300938</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2303.170539913434</v>
+        <v>1616.654488422264</v>
       </c>
       <c r="C17" t="n">
-        <v>1934.208022973022</v>
+        <v>1616.654488422264</v>
       </c>
       <c r="D17" t="n">
-        <v>1575.942324366272</v>
+        <v>1258.388789815514</v>
       </c>
       <c r="E17" t="n">
-        <v>1190.154071768027</v>
+        <v>872.6005372172694</v>
       </c>
       <c r="F17" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
@@ -5536,31 +5536,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3269.213885854414</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T17" t="n">
-        <v>3063.236138238636</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U17" t="n">
-        <v>3063.236138238636</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V17" t="n">
-        <v>3063.236138238636</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="W17" t="n">
-        <v>3063.236138238636</v>
+        <v>2766.859418723277</v>
       </c>
       <c r="X17" t="n">
-        <v>2689.770379977556</v>
+        <v>2393.393660462198</v>
       </c>
       <c r="Y17" t="n">
-        <v>2689.770379977556</v>
+        <v>2003.254328486386</v>
       </c>
     </row>
     <row r="18">
@@ -5585,22 +5585,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5609,10 +5609,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.51211643218342</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="C19" t="n">
-        <v>66.51211643218342</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T19" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U19" t="n">
-        <v>410.0175235133545</v>
+        <v>631.7841389438278</v>
       </c>
       <c r="V19" t="n">
-        <v>155.3330353074676</v>
+        <v>631.7841389438278</v>
       </c>
       <c r="W19" t="n">
-        <v>155.3330353074676</v>
+        <v>612.3211433678175</v>
       </c>
       <c r="X19" t="n">
-        <v>155.3330353074676</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.51211643218342</v>
+        <v>384.3315924698002</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1175.30093260579</v>
+        <v>1565.440264581601</v>
       </c>
       <c r="C20" t="n">
-        <v>806.3384156653785</v>
+        <v>1196.477747641189</v>
       </c>
       <c r="D20" t="n">
-        <v>448.072717058628</v>
+        <v>838.2120490344389</v>
       </c>
       <c r="E20" t="n">
-        <v>448.072717058628</v>
+        <v>452.4237964361947</v>
       </c>
       <c r="F20" t="n">
-        <v>448.072717058628</v>
+        <v>452.4237964361947</v>
       </c>
       <c r="G20" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5782,22 +5782,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V20" t="n">
-        <v>2678.274518176918</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W20" t="n">
         <v>2325.505862906803</v>
       </c>
       <c r="X20" t="n">
-        <v>1952.040104645724</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y20" t="n">
-        <v>1561.900772669912</v>
+        <v>1952.040104645723</v>
       </c>
     </row>
     <row r="21">
@@ -5828,16 +5828,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5849,7 +5849,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3143.957356778932</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C22" t="n">
-        <v>2975.021173851025</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D22" t="n">
-        <v>2824.904534438689</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E22" t="n">
-        <v>2676.991440856296</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F22" t="n">
-        <v>2676.991440856296</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>2676.991440856296</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>2568.556609404825</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K22" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L22" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M22" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N22" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O22" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P22" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T22" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U22" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V22" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W22" t="n">
-        <v>3325.605821609171</v>
+        <v>864.6455479292516</v>
       </c>
       <c r="X22" t="n">
-        <v>3325.605821609171</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y22" t="n">
-        <v>3325.605821609171</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1881.708680670285</v>
+        <v>1930.094988518961</v>
       </c>
       <c r="C23" t="n">
-        <v>1512.746163729873</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="D23" t="n">
-        <v>1154.480465123123</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E23" t="n">
-        <v>768.6922125248784</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F23" t="n">
-        <v>357.7063077352709</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G23" t="n">
-        <v>357.7063077352709</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
@@ -6019,22 +6019,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.605821609171</v>
+        <v>3059.602815829009</v>
       </c>
       <c r="V23" t="n">
-        <v>2994.542934265601</v>
+        <v>3059.602815829009</v>
       </c>
       <c r="W23" t="n">
-        <v>2641.774278995486</v>
+        <v>2706.834160558895</v>
       </c>
       <c r="X23" t="n">
-        <v>2268.308520734407</v>
+        <v>2706.834160558895</v>
       </c>
       <c r="Y23" t="n">
-        <v>2268.308520734407</v>
+        <v>2316.694828583083</v>
       </c>
     </row>
     <row r="24">
@@ -6059,16 +6059,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.51211643218343</v>
+        <v>290.4564109463977</v>
       </c>
       <c r="C25" t="n">
-        <v>66.51211643218343</v>
+        <v>121.5202280184908</v>
       </c>
       <c r="D25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K25" t="n">
         <v>176.6457242372933</v>
@@ -6156,43 +6156,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N25" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O25" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P25" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U25" t="n">
-        <v>631.7841389438286</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V25" t="n">
-        <v>377.0996507379417</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W25" t="n">
-        <v>87.6824807009811</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X25" t="n">
-        <v>66.51211643218343</v>
+        <v>692.8974549201675</v>
       </c>
       <c r="Y25" t="n">
-        <v>66.51211643218343</v>
+        <v>472.1048757766374</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1844.338003964586</v>
+        <v>2255.174438931364</v>
       </c>
       <c r="C26" t="n">
-        <v>1475.375487024174</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D26" t="n">
-        <v>1117.109788417424</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E26" t="n">
-        <v>731.3215358191796</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F26" t="n">
-        <v>320.3356310295721</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G26" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6250,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V26" t="n">
-        <v>2994.542934265599</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W26" t="n">
-        <v>2994.542934265599</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X26" t="n">
-        <v>2621.07717600452</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="Y26" t="n">
-        <v>2230.937844028708</v>
+        <v>2641.774278995485</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C27" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D27" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E27" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F27" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G27" t="n">
-        <v>936.5735814686066</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>827.064395508012</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>290.4564109463977</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C28" t="n">
-        <v>121.5202280184908</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596505</v>
@@ -6417,19 +6417,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U28" t="n">
-        <v>920.8870058181849</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="V28" t="n">
-        <v>920.8870058181849</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="W28" t="n">
-        <v>920.8870058181849</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X28" t="n">
-        <v>692.8974549201675</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y28" t="n">
-        <v>472.1048757766374</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1491.569348694473</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C29" t="n">
-        <v>1278.358723975039</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D29" t="n">
         <v>1278.358723975039</v>
@@ -6493,22 +6493,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V29" t="n">
-        <v>2994.542934265601</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W29" t="n">
-        <v>2641.774278995486</v>
+        <v>2765.652537847403</v>
       </c>
       <c r="X29" t="n">
-        <v>2268.308520734407</v>
+        <v>2392.186779586323</v>
       </c>
       <c r="Y29" t="n">
-        <v>1878.169188758595</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="30">
@@ -6518,34 +6518,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G30" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L30" t="n">
         <v>765.1517452158131</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6603,10 +6603,10 @@
         <v>290.4564109463978</v>
       </c>
       <c r="D31" t="n">
-        <v>290.4564109463978</v>
+        <v>140.3397715340621</v>
       </c>
       <c r="E31" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F31" t="n">
         <v>66.51211643218343</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2303.170539913434</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C32" t="n">
-        <v>1934.208022973022</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D32" t="n">
-        <v>1575.942324366272</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E32" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F32" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G32" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T32" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U32" t="n">
-        <v>3119.628073993394</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V32" t="n">
-        <v>3119.628073993394</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W32" t="n">
-        <v>3119.628073993394</v>
+        <v>2719.306689612892</v>
       </c>
       <c r="X32" t="n">
-        <v>3079.909711953368</v>
+        <v>2345.840931351812</v>
       </c>
       <c r="Y32" t="n">
-        <v>2689.770379977556</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="33">
@@ -6770,16 +6770,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>920.887005818185</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C34" t="n">
-        <v>920.887005818185</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D34" t="n">
-        <v>772.5608581015648</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E34" t="n">
-        <v>624.6477645191717</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F34" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K34" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L34" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N34" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O34" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P34" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q34" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R34" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S34" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T34" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U34" t="n">
-        <v>920.887005818185</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V34" t="n">
-        <v>920.887005818185</v>
+        <v>576.721865612674</v>
       </c>
       <c r="W34" t="n">
-        <v>920.887005818185</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="X34" t="n">
-        <v>920.887005818185</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y34" t="n">
-        <v>920.887005818185</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1917.382287315189</v>
+        <v>1859.132475219474</v>
       </c>
       <c r="C35" t="n">
-        <v>1548.419770374778</v>
+        <v>1490.169958279062</v>
       </c>
       <c r="D35" t="n">
-        <v>1190.154071768027</v>
+        <v>1131.904259672312</v>
       </c>
       <c r="E35" t="n">
-        <v>1190.154071768027</v>
+        <v>746.1160070740675</v>
       </c>
       <c r="F35" t="n">
-        <v>779.1681669784198</v>
+        <v>335.13010228446</v>
       </c>
       <c r="G35" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3012.050264895652</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U35" t="n">
-        <v>3012.050264895652</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V35" t="n">
-        <v>2680.987377552081</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W35" t="n">
-        <v>2680.987377552081</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="X35" t="n">
-        <v>2307.521619291001</v>
+        <v>2635.871647259407</v>
       </c>
       <c r="Y35" t="n">
-        <v>1917.382287315189</v>
+        <v>2245.732315283596</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2923.164777635402</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="C37" t="n">
-        <v>2754.228594707495</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D37" t="n">
-        <v>2604.111955295159</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E37" t="n">
-        <v>2604.111955295159</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F37" t="n">
-        <v>2604.111955295159</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K37" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L37" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N37" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O37" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P37" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T37" t="n">
-        <v>3325.605821609171</v>
+        <v>795.1487927558362</v>
       </c>
       <c r="U37" t="n">
-        <v>3325.605821609171</v>
+        <v>506.0459258814798</v>
       </c>
       <c r="V37" t="n">
-        <v>3325.605821609171</v>
+        <v>506.0459258814798</v>
       </c>
       <c r="W37" t="n">
-        <v>3325.605821609171</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="X37" t="n">
-        <v>3325.605821609171</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="Y37" t="n">
-        <v>3104.813242465641</v>
+        <v>216.6287558445191</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1934.208022973022</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C38" t="n">
-        <v>1934.208022973022</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D38" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E38" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F38" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7198,28 +7198,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.605821609171</v>
+        <v>3142.251815863195</v>
       </c>
       <c r="V38" t="n">
-        <v>3325.605821609171</v>
+        <v>2811.188928519624</v>
       </c>
       <c r="W38" t="n">
-        <v>3084.412953274035</v>
+        <v>2811.188928519624</v>
       </c>
       <c r="X38" t="n">
-        <v>2710.947195012955</v>
+        <v>2437.723170258544</v>
       </c>
       <c r="Y38" t="n">
-        <v>2320.807863037144</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="39">
@@ -7229,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2695.175226737384</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C40" t="n">
-        <v>2526.239043809478</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D40" t="n">
-        <v>2471.23093222317</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E40" t="n">
-        <v>2471.23093222317</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K40" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L40" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M40" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N40" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O40" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P40" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V40" t="n">
-        <v>3325.605821609171</v>
+        <v>913.8728408985925</v>
       </c>
       <c r="W40" t="n">
-        <v>3325.605821609171</v>
+        <v>913.8728408985925</v>
       </c>
       <c r="X40" t="n">
-        <v>3097.616270711154</v>
+        <v>913.8728408985925</v>
       </c>
       <c r="Y40" t="n">
-        <v>2876.823691567624</v>
+        <v>693.0802617550623</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2005.586939522201</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C41" t="n">
-        <v>1636.624422581789</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D41" t="n">
-        <v>1278.358723975039</v>
+        <v>985.1133520179758</v>
       </c>
       <c r="E41" t="n">
-        <v>892.5704713767946</v>
+        <v>599.3250994197315</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>188.3391946301239</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7429,34 +7429,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W41" t="n">
-        <v>3155.791869823214</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X41" t="n">
-        <v>2782.326111562134</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y41" t="n">
-        <v>2392.186779586323</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="42">
@@ -7487,16 +7487,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>409.7032203507509</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C43" t="n">
-        <v>409.7032203507509</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D43" t="n">
-        <v>409.7032203507509</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E43" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K43" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L43" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O43" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R43" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S43" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T43" t="n">
-        <v>699.1203903877115</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U43" t="n">
-        <v>699.1203903877115</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V43" t="n">
-        <v>699.1203903877115</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="W43" t="n">
-        <v>409.7032203507509</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="X43" t="n">
-        <v>409.7032203507509</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y43" t="n">
-        <v>409.7032203507509</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1822.632236038043</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C44" t="n">
-        <v>1453.669719097632</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D44" t="n">
-        <v>1095.404020490881</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E44" t="n">
-        <v>709.615767892637</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>298.6298631030294</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.605821609171</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="W44" t="n">
-        <v>2972.837166339057</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X44" t="n">
-        <v>2599.371408077977</v>
+        <v>2051.9349176603</v>
       </c>
       <c r="Y44" t="n">
-        <v>2209.232076102165</v>
+        <v>1661.795585684488</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2471.23093222317</v>
+        <v>403.4802848832062</v>
       </c>
       <c r="C46" t="n">
-        <v>2471.23093222317</v>
+        <v>234.5441019552993</v>
       </c>
       <c r="D46" t="n">
-        <v>2471.23093222317</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E46" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F46" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G46" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H46" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I46" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J46" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K46" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L46" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M46" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N46" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O46" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P46" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R46" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S46" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T46" t="n">
-        <v>3304.435457340374</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U46" t="n">
-        <v>3015.332590466017</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="V46" t="n">
-        <v>2760.648102260131</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="W46" t="n">
-        <v>2471.23093222317</v>
+        <v>631.4698357812235</v>
       </c>
       <c r="X46" t="n">
-        <v>2471.23093222317</v>
+        <v>403.4802848832062</v>
       </c>
       <c r="Y46" t="n">
-        <v>2471.23093222317</v>
+        <v>403.4802848832062</v>
       </c>
     </row>
   </sheetData>
@@ -22555,19 +22555,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059421</v>
+        <v>216.7578328961673</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G2" t="n">
-        <v>247.9252960539637</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,10 +22594,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.0817190166639</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900532</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -22606,16 +22606,16 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038152</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897339</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.360646473773016</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>2.902568490977785</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409152</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265846</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846324</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>38.3381812437712</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310554</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715775</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22728,10 +22728,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>18.95836326784877</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,10 +22746,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709393</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.6860405515973</v>
+        <v>16.47009429716292</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971607</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,16 +22792,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>194.4047829059418</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>219.3504585753915</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G5" t="n">
-        <v>325.0070150706272</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H5" t="n">
-        <v>129.3682389399024</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
         <v>125.4713171199747</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>298.1471204966228</v>
       </c>
     </row>
     <row r="6">
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>7.535961812221217</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22874,19 +22874,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>57.31271859124226</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409149</v>
+        <v>58.9045589040915</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,22 +22910,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.4328956284632</v>
+        <v>72.43289562846321</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>195.4095977920013</v>
       </c>
       <c r="U6" t="n">
-        <v>38.33818124377098</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
-        <v>45.27499998310532</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>64.16939599459965</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22965,10 +22965,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825419</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709389</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.68604055159726</v>
+        <v>68.68604055159727</v>
       </c>
       <c r="R7" t="n">
-        <v>80.60642335625595</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
         <v>206.7802557954962</v>
@@ -22998,7 +22998,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2650814934503</v>
+        <v>234.049135239016</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,19 +23029,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>219.3504585753915</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>225.5722460637381</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>129.3682389399023</v>
+        <v>48.87259023368844</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>213.4438810562068</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1692605650303</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>239.6614403107041</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>7.535961812221217</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>100.2346469980766</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>58.90455890409149</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265838</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.43289562846319</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>195.4095977920012</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8637684100909</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>64.16939599459965</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>18.24739803715752</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.15710861098441</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0019352027142</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318196</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708667</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>57.06999962825415</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
-        <v>14.1043098940285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,25 +23220,25 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709383</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.68604055159723</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>154.5643095410617</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>223.7196734901001</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2650814934503</v>
+        <v>66.22175214206376</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -23320,10 +23320,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>168.0688818921495</v>
+        <v>268.7291653228044</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>34.983245400968</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>130.6519436655637</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>44.26266055433831</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>198.1857897438368</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23673,7 +23673,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>34.98324540096796</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>119.0282071475819</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23718,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>355.9549289781763</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>53.35974539096594</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>267.2546327163408</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.6519436655635</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23977,19 +23977,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>327.7844954205937</v>
+        <v>365.0538566097287</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>37.40453177736457</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -24189,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>230.8439550265474</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24223,10 +24223,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>6.325514997263895</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>191.5701663761618</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>94.15744254776808</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24420,19 +24420,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>204.7509947629275</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>89.09306974517534</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>159.6364462020387</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>94.15744254776807</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24657,7 +24657,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>64.50698663654069</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>154.1943732987677</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>249.8003598917838</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24843,13 +24843,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>70.15015910042821</v>
+        <v>73.34458409570932</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>21.10176072519585</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,19 +24970,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>330.4099222588433</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>1.772586778758381</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>197.6259927259851</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>186.5668494326256</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>2.685730781411593</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>34.47359541775941</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25365,22 +25365,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>95.06811834444402</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>178.6624680585623</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>110.4600290656282</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>94.1574425477682</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25608,13 +25608,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>245.1936200534315</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>331.8898480104183</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -25690,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>181.1251564493154</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>118.1216260491468</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -25845,10 +25845,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>233.5727568941964</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>181.1251564493159</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>36.78530491553795</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>128.6977699968968</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>198.59028865006</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>424931.0936061952</v>
+        <v>658545.8706526515</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903114</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903117</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903117</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>839054.4922903118</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
   </sheetData>
@@ -26316,31 +26316,31 @@
         <v>158307.6623238765</v>
       </c>
       <c r="C2" t="n">
-        <v>158307.6623238765</v>
+        <v>158307.6623238766</v>
       </c>
       <c r="D2" t="n">
-        <v>158307.6623238765</v>
+        <v>245340.6184784386</v>
       </c>
       <c r="E2" t="n">
-        <v>312588.9285003117</v>
+        <v>312588.9285003116</v>
       </c>
       <c r="F2" t="n">
+        <v>312588.928500312</v>
+      </c>
+      <c r="G2" t="n">
+        <v>312588.9285003116</v>
+      </c>
+      <c r="H2" t="n">
         <v>312588.9285003118</v>
-      </c>
-      <c r="G2" t="n">
-        <v>312588.9285003117</v>
-      </c>
-      <c r="H2" t="n">
-        <v>312588.9285003119</v>
       </c>
       <c r="I2" t="n">
         <v>312588.9285003117</v>
       </c>
       <c r="J2" t="n">
-        <v>312588.928500312</v>
+        <v>312588.9285003119</v>
       </c>
       <c r="K2" t="n">
-        <v>312588.9285003117</v>
+        <v>312588.9285003118</v>
       </c>
       <c r="L2" t="n">
         <v>312588.9285003117</v>
@@ -26349,10 +26349,10 @@
         <v>312588.9285003117</v>
       </c>
       <c r="N2" t="n">
-        <v>312588.928500312</v>
+        <v>312588.9285003118</v>
       </c>
       <c r="O2" t="n">
-        <v>312588.9285003119</v>
+        <v>312588.9285003117</v>
       </c>
       <c r="P2" t="n">
         <v>312588.9285003117</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208451</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>3.10570385408937e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>371558.5249487662</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336676</v>
+        <v>276030.7457669097</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,25 +26386,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854447</v>
+        <v>49064.94472854456</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>89743.37813127026</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678774</v>
+        <v>72091.35261608608</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.8001180723338</v>
+        <v>137.800118072334</v>
       </c>
       <c r="C4" t="n">
-        <v>137.800118072334</v>
+        <v>137.8001180723339</v>
       </c>
       <c r="D4" t="n">
-        <v>137.8001180723341</v>
+        <v>384.3219252469136</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="F4" t="n">
         <v>584.6469890061231</v>
       </c>
       <c r="G4" t="n">
+        <v>584.6469890061228</v>
+      </c>
+      <c r="H4" t="n">
+        <v>584.646989006123</v>
+      </c>
+      <c r="I4" t="n">
         <v>584.6469890061231</v>
       </c>
-      <c r="H4" t="n">
-        <v>584.6469890061232</v>
-      </c>
-      <c r="I4" t="n">
-        <v>584.6469890061232</v>
-      </c>
       <c r="J4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="K4" t="n">
         <v>584.6469890061231</v>
       </c>
       <c r="L4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="M4" t="n">
+        <v>584.646989006123</v>
+      </c>
+      <c r="N4" t="n">
         <v>584.6469890061231</v>
       </c>
-      <c r="N4" t="n">
-        <v>584.6469890061232</v>
-      </c>
       <c r="O4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061228</v>
       </c>
     </row>
     <row r="5">
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161355</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161358</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
@@ -26493,25 +26493,25 @@
         <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="M5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="N5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="O5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="M5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="N5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="O5" t="n">
-        <v>74306.34056139331</v>
-      </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-490172.8407266544</v>
+        <v>-502366.9027456894</v>
       </c>
       <c r="C6" t="n">
-        <v>101184.0617941903</v>
+        <v>88989.99977515603</v>
       </c>
       <c r="D6" t="n">
-        <v>101184.0617941906</v>
+        <v>-219414.6903676097</v>
       </c>
       <c r="E6" t="n">
-        <v>-389436.7026837554</v>
+        <v>-42406.80019516712</v>
       </c>
       <c r="F6" t="n">
-        <v>237697.9409499124</v>
+        <v>233623.9455717427</v>
       </c>
       <c r="G6" t="n">
-        <v>237697.9409499123</v>
+        <v>233623.945571743</v>
       </c>
       <c r="H6" t="n">
-        <v>237697.9409499125</v>
+        <v>233623.9455717427</v>
       </c>
       <c r="I6" t="n">
-        <v>237697.9409499122</v>
+        <v>233623.9455717425</v>
       </c>
       <c r="J6" t="n">
-        <v>188632.9962213681</v>
+        <v>184559.0008431983</v>
       </c>
       <c r="K6" t="n">
-        <v>237697.9409499122</v>
+        <v>233623.9455717427</v>
       </c>
       <c r="L6" t="n">
-        <v>237697.9409499122</v>
+        <v>143880.5674404725</v>
       </c>
       <c r="M6" t="n">
-        <v>77241.49908203489</v>
+        <v>161532.5929556566</v>
       </c>
       <c r="N6" t="n">
-        <v>237697.9409499125</v>
+        <v>233623.9455717427</v>
       </c>
       <c r="O6" t="n">
-        <v>237697.9409499122</v>
+        <v>233623.9455717427</v>
       </c>
       <c r="P6" t="n">
-        <v>237697.9409499125</v>
+        <v>233623.945571743</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129047</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26776,7 +26776,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
         <v>1089.776700593298</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="D4" t="n">
-        <v>187.52558716632</v>
+        <v>542.1149567261633</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="I4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="F4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>305.2407236247797</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803936</v>
+        <v>236.0660360556139</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>187.5255871663199</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>354.5893695598435</v>
+      </c>
+      <c r="E4" t="n">
+        <v>289.2864986761291</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>187.5255871663197</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>643.8758682359728</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>187.5255871663194</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>354.5893695598431</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359728</v>
+        <v>289.2864986761291</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>354.5893695598435</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359728</v>
+        <v>289.2864986761291</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954483</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043114</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655542</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528637</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.950432967289</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470271</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622677</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244292</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974682</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619219</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924574</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31123,46 +31123,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590848</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340082</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621735</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405031</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829652</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292671</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.276266862887</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550071</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820366</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620011</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114189</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276989</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604413</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592432</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784854</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647907</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181392</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J5" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O5" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P5" t="n">
         <v>317.0679923244294</v>
@@ -31314,10 +31314,10 @@
         <v>138.5038187974683</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U5" t="n">
         <v>0.1763923428061601</v>
@@ -31360,7 +31360,7 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I6" t="n">
         <v>40.6178210959085</v>
@@ -31369,7 +31369,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L6" t="n">
         <v>256.1509851405032</v>
@@ -31378,7 +31378,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O6" t="n">
         <v>280.6872536292673</v>
@@ -31387,19 +31387,19 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S6" t="n">
         <v>21.9129264128882</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O7" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R7" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T7" t="n">
         <v>4.225915938181394</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077002</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954486</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043121</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655544</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528639</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672893</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470274</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470025</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>371.501566862268</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244295</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151093</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974684</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619223</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924582</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435304</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575676</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>40.61782109590851</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340083</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621737</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405033</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>298.916117797533</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829655</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292674</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628872</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936715</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550077</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>21.91292641288821</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>4.75513090282037</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445822</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620018</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639162</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114196</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765069</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276991</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682166</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604415</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592433</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820538</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784861</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647911</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147603</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181395</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095029</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32806,10 +32806,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33028,7 +33028,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353162</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33265,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33517,10 +33517,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33672,7 +33672,7 @@
         <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.151212309905</v>
       </c>
       <c r="P35" t="n">
         <v>629.9949819746414</v>
@@ -33748,7 +33748,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33918,7 +33918,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563574</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
         <v>99.83230779806951</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34131,40 +34131,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138789</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34283,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867938</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788315</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973018</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197544</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.403355440581</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915967</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065958</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781455</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606289</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755144</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996319</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.3018594485568</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764987</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646066</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061144</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520815</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400438</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L5" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P5" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065975</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L6" t="n">
         <v>117.596605360629</v>
@@ -35026,16 +35026,16 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996321</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646075</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061149</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400495</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.09259053886808</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788338</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973021</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197547</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504116</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405813</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656915996</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065978</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781472</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>117.5966053606291</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755147</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996321</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>138.091009184823</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>91.301859448557</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764999</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>12.1592157464608</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061155</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520829</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400552</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O13" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M19" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K22" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M22" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O22" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36454,10 +36454,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609572</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36913,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -37165,10 +37165,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882182</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37396,7 +37396,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340047</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K43" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L43" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M43" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N43" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O43" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P43" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K46" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M46" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N46" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O46" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>515726.6621658594</v>
+        <v>565488.6672442006</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8088944.869226767</v>
+        <v>8547013.059513927</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8722880.896883903</v>
+        <v>8506890.903312845</v>
       </c>
     </row>
     <row r="11">
@@ -667,64 +667,64 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="G2" t="n">
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>187.5255871663199</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -743,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>144.542497073661</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,22 +788,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V3" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.21594625443434</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="F5" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="G5" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.08171901666381</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>165.1725371760943</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="Y5" t="n">
-        <v>88.09081815943075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -986,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>87.75649380214162</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="W6" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>149.7933161434358</v>
       </c>
     </row>
     <row r="7">
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>52.21594625443403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>52.21594625443432</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="H8" t="n">
-        <v>255.4542145224946</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>77.0817190166639</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>116.8405921356969</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>57.41043345732432</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1262,22 +1262,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>165.1725371760943</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>220.0133056736529</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>52.21594625443403</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>212.6523855345972</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>101.0019353556647</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>107.0704956909094</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>87.93270968653104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>321.0102312166692</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>140.5582313120301</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>167.183631058031</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>238.1138357058008</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>50.92111676353509</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>16.73455954182753</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,22 +2004,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>93.35882079147999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>19.26836562025015</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2086,22 +2086,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>45.86786904372472</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>68.28762422566615</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>55.6790433100436</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>115.7836655003854</v>
       </c>
     </row>
     <row r="23">
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>251.5440055293205</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2335,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>59.42500558274017</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2450,7 +2450,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189229</v>
       </c>
       <c r="U24" t="n">
         <v>225.7871683969286</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>54.45803047044427</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>135.8126782397848</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>276.1798220258322</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2566,16 +2566,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>247.2395995396728</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2648,7 +2648,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>134.9994691657079</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
         <v>89.59687541851115</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>144.6581552150298</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>221.7048515690722</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>28.85464174104318</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>99.44060882562916</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>73.08937855085985</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>58.28185552386362</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>361.6320809382847</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,10 +3046,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>190.6667201844989</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3189,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>46.68696776231194</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>54.51165059784287</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>224.3548762208278</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>277.3402843603905</v>
       </c>
     </row>
     <row r="36">
@@ -3426,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>93.35882079147999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>124.4808309317252</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3514,10 +3514,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>72.97362349455813</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>72.33270390033967</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>165.2069472921625</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3672,10 +3672,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>6.944023270396492</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3751,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>79.03187764303514</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>181.7594728473261</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3900,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>120.8277663310641</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>18.56488642963162</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>237.3529516349084</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>332.9457957629311</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4137,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>19.91770302131553</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>103.4174310902483</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>560.6825636487947</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C2" t="n">
-        <v>560.6825636487947</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D2" t="n">
-        <v>560.6825636487947</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E2" t="n">
-        <v>393.841617006275</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897903</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G2" t="n">
         <v>15.00204697330559</v>
@@ -4336,16 +4336,16 @@
         <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079183</v>
       </c>
       <c r="M2" t="n">
         <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123827</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P2" t="n">
         <v>734.4611726020263</v>
@@ -4360,22 +4360,22 @@
         <v>750.1023486652795</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652795</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652795</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652795</v>
+        <v>371.26277863231</v>
       </c>
       <c r="W2" t="n">
-        <v>560.6825636487947</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="X2" t="n">
-        <v>560.6825636487947</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.6825636487947</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>409.399488203391</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>409.399488203391</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>263.3969659067637</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>263.3969659067637</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
         <v>15.00204697330559</v>
@@ -4418,13 +4418,13 @@
         <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
         <v>739.598998701706</v>
@@ -4436,25 +4436,25 @@
         <v>750.1023486652795</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198758</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T3" t="n">
-        <v>598.8192732198758</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U3" t="n">
-        <v>598.8192732198758</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="V3" t="n">
-        <v>409.399488203391</v>
+        <v>371.26277863231</v>
       </c>
       <c r="W3" t="n">
-        <v>409.399488203391</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="X3" t="n">
-        <v>409.399488203391</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y3" t="n">
-        <v>409.399488203391</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>697.3589686102953</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>697.3589686102953</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>697.3589686102953</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>697.3589686102953</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>697.3589686102953</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>697.3589686102953</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>697.3589686102953</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>697.3589686102953</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>697.3589686102953</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>697.3589686102953</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>709.3965921992915</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M4" t="n">
-        <v>725.3468614886968</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>748.775394930953</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652795</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652795</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>697.3589686102953</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>697.3589686102953</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>697.3589686102953</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="T4" t="n">
-        <v>697.3589686102953</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U4" t="n">
-        <v>697.3589686102953</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V4" t="n">
-        <v>697.3589686102953</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W4" t="n">
-        <v>697.3589686102953</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>697.3589686102953</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>697.3589686102953</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>393.841617006275</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="C5" t="n">
-        <v>393.841617006275</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="D5" t="n">
-        <v>393.841617006275</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="E5" t="n">
-        <v>393.841617006275</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="F5" t="n">
-        <v>204.4218319897903</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G5" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H5" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678495</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K5" t="n">
         <v>80.81213159058962</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079188</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N5" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123825</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985575</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020264</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R5" t="n">
-        <v>672.2420264262252</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S5" t="n">
-        <v>672.2420264262252</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T5" t="n">
-        <v>672.2420264262252</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="U5" t="n">
-        <v>672.2420264262252</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="V5" t="n">
-        <v>672.2420264262252</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="W5" t="n">
-        <v>672.2420264262252</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="X5" t="n">
-        <v>672.2420264262252</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="Y5" t="n">
-        <v>583.2614020227597</v>
+        <v>393.8416170062745</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>241.1841511833227</v>
+        <v>30.53661367296058</v>
       </c>
       <c r="C6" t="n">
-        <v>241.1841511833227</v>
+        <v>30.53661367296058</v>
       </c>
       <c r="D6" t="n">
-        <v>241.1841511833227</v>
+        <v>30.53661367296058</v>
       </c>
       <c r="E6" t="n">
-        <v>241.1841511833227</v>
+        <v>30.53661367296058</v>
       </c>
       <c r="F6" t="n">
-        <v>152.5412281508565</v>
+        <v>30.53661367296058</v>
       </c>
       <c r="G6" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296058</v>
       </c>
       <c r="H6" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296058</v>
       </c>
       <c r="I6" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296058</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024202</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772648</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140241</v>
+        <v>338.769091114024</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546599</v>
+        <v>512.5000587546593</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476345</v>
+        <v>649.210157847634</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017058</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S6" t="n">
-        <v>598.8192732198755</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T6" t="n">
-        <v>598.8192732198755</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="U6" t="n">
-        <v>598.8192732198755</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="V6" t="n">
-        <v>598.8192732198755</v>
+        <v>560.682563648794</v>
       </c>
       <c r="W6" t="n">
-        <v>409.3994882033908</v>
+        <v>371.2627786323095</v>
       </c>
       <c r="X6" t="n">
-        <v>409.3994882033908</v>
+        <v>181.842993615825</v>
       </c>
       <c r="Y6" t="n">
-        <v>409.3994882033908</v>
+        <v>30.53661367296058</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="C7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230173</v>
+        <v>27.03967056230162</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170711</v>
+        <v>42.98993985170694</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396326</v>
+        <v>66.418473293963</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702828975</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="R7" t="n">
-        <v>67.74542702828975</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702828975</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="T7" t="n">
-        <v>67.74542702828975</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="U7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="V7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="W7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="X7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>687.1920092600692</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="C8" t="n">
-        <v>687.1920092600692</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="D8" t="n">
-        <v>687.1920092600692</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="E8" t="n">
-        <v>301.403756661825</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="F8" t="n">
-        <v>301.403756661825</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="G8" t="n">
-        <v>301.403756661825</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>21.03371160678486</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232722</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711872</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>509.4952041123825</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>649.4845259985575</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>672.2420264262241</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>511.8624171433421</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="V8" t="n">
-        <v>1837.396939561082</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.396939561082</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="X8" t="n">
-        <v>1463.931181300003</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="Y8" t="n">
-        <v>1073.791849324191</v>
+        <v>204.4218319897901</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>533.7044947829236</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="C9" t="n">
-        <v>533.7044947829236</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D9" t="n">
-        <v>384.7700851216723</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E9" t="n">
-        <v>326.7797482960922</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F9" t="n">
-        <v>180.2451903229772</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>67.13418877024198</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>338.7690911140239</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>512.5000587546594</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>649.2101578476339</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>739.5989987017051</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>750.1023486652784</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333487</v>
+        <v>750.1023486652784</v>
       </c>
       <c r="S9" t="n">
-        <v>1627.262386835205</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T9" t="n">
-        <v>1627.262386835205</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="U9" t="n">
-        <v>1399.160796968469</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="V9" t="n">
-        <v>1164.008688736726</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="W9" t="n">
-        <v>909.7713320085245</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="X9" t="n">
-        <v>701.9198318029917</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="Y9" t="n">
-        <v>701.9198318029917</v>
+        <v>15.00204697330557</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="C10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981523</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>27.03967056230162</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>42.98993985170694</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>66.418473293963</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="U10" t="n">
-        <v>298.0536847439799</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="V10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="W10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="X10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="Y10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1888.09808975843</v>
+        <v>1930.094988518961</v>
       </c>
       <c r="C11" t="n">
-        <v>1519.135572818019</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="D11" t="n">
-        <v>1160.869874211268</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E11" t="n">
-        <v>775.0816216130238</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F11" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K11" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329463</v>
@@ -5056,37 +5056,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993392</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U11" t="n">
-        <v>3119.628073993392</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V11" t="n">
-        <v>3119.628073993392</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W11" t="n">
-        <v>2766.859418723277</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="X11" t="n">
-        <v>2664.837261798364</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="Y11" t="n">
-        <v>2274.697929822552</v>
+        <v>2144.895377947847</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T13" t="n">
-        <v>699.1203903877106</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U13" t="n">
-        <v>410.0175235133541</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V13" t="n">
-        <v>155.3330353074673</v>
+        <v>523.6321230944251</v>
       </c>
       <c r="W13" t="n">
-        <v>155.3330353074673</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="X13" t="n">
-        <v>155.3330353074673</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="Y13" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1914.669427940025</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="C14" t="n">
-        <v>1590.416669135309</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D14" t="n">
-        <v>1232.150970528558</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912088</v>
@@ -5302,28 +5302,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U14" t="n">
-        <v>3009.337405520488</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V14" t="n">
-        <v>2678.274518176917</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W14" t="n">
-        <v>2678.274518176917</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X14" t="n">
-        <v>2304.808759915837</v>
+        <v>2040.28804322725</v>
       </c>
       <c r="Y14" t="n">
-        <v>1914.669427940025</v>
+        <v>1650.148711251439</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>213.4020639300938</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C16" t="n">
-        <v>213.4020639300938</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D16" t="n">
-        <v>213.4020639300938</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E16" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L16" t="n">
         <v>332.3555681596505</v>
@@ -5460,28 +5460,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R16" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S16" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T16" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U16" t="n">
-        <v>662.1841939716412</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V16" t="n">
-        <v>662.1841939716412</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="W16" t="n">
-        <v>662.1841939716412</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="X16" t="n">
-        <v>434.1946430736239</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.4020639300938</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1616.654488422264</v>
+        <v>1611.504630229389</v>
       </c>
       <c r="C17" t="n">
-        <v>1616.654488422264</v>
+        <v>1242.542113288977</v>
       </c>
       <c r="D17" t="n">
-        <v>1258.388789815514</v>
+        <v>884.2764146822267</v>
       </c>
       <c r="E17" t="n">
-        <v>872.6005372172694</v>
+        <v>498.4881620839824</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389512</v>
+        <v>498.4881620839824</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839476</v>
+        <v>83.41571192897891</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5536,31 +5536,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>3119.628073993392</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V17" t="n">
-        <v>3119.628073993392</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W17" t="n">
-        <v>2766.859418723277</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X17" t="n">
-        <v>2393.393660462198</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="Y17" t="n">
-        <v>2003.254328486386</v>
+        <v>1998.104470293511</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>384.3315924698002</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="C19" t="n">
-        <v>384.3315924698002</v>
+        <v>751.950822890278</v>
       </c>
       <c r="D19" t="n">
-        <v>234.2149530574644</v>
+        <v>601.8341834779422</v>
       </c>
       <c r="E19" t="n">
-        <v>234.2149530574644</v>
+        <v>453.9210898955491</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574644</v>
+        <v>307.0311423976387</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T19" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U19" t="n">
-        <v>631.7841389438278</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V19" t="n">
-        <v>631.7841389438278</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W19" t="n">
-        <v>612.3211433678175</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X19" t="n">
-        <v>384.3315924698002</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y19" t="n">
-        <v>384.3315924698002</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1565.440264581601</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C20" t="n">
-        <v>1196.477747641189</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D20" t="n">
-        <v>838.2120490344389</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E20" t="n">
-        <v>452.4237964361947</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F20" t="n">
-        <v>452.4237964361947</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H20" t="n">
         <v>108.5090151927147</v>
@@ -5752,16 +5752,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5779,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U20" t="n">
-        <v>3009.337405520488</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V20" t="n">
-        <v>2678.274518176917</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W20" t="n">
-        <v>2325.505862906803</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="X20" t="n">
-        <v>1952.040104645723</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y20" t="n">
-        <v>1952.040104645723</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="21">
@@ -5822,10 +5822,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5834,10 +5834,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5849,7 +5849,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>234.2149530574645</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C22" t="n">
-        <v>234.2149530574645</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D22" t="n">
-        <v>234.2149530574645</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E22" t="n">
-        <v>234.2149530574645</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
         <v>66.51211643218342</v>
@@ -5910,52 +5910,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L22" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R22" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S22" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T22" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U22" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V22" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="W22" t="n">
-        <v>864.6455479292516</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="X22" t="n">
-        <v>636.6559970312343</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="Y22" t="n">
-        <v>415.8634178877041</v>
+        <v>714.1033511005761</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1930.094988518961</v>
+        <v>1458.811090838974</v>
       </c>
       <c r="C23" t="n">
-        <v>1561.13247157855</v>
+        <v>1089.848573898562</v>
       </c>
       <c r="D23" t="n">
-        <v>1202.866772971799</v>
+        <v>731.5828752918117</v>
       </c>
       <c r="E23" t="n">
-        <v>817.078520373555</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F23" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
         <v>589.2106210810553</v>
@@ -5998,7 +5998,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
@@ -6013,28 +6013,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U23" t="n">
-        <v>3059.602815829009</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V23" t="n">
-        <v>3059.602815829009</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W23" t="n">
-        <v>2706.834160558895</v>
+        <v>2609.016021139987</v>
       </c>
       <c r="X23" t="n">
-        <v>2706.834160558895</v>
+        <v>2235.550262878907</v>
       </c>
       <c r="Y23" t="n">
-        <v>2316.694828583083</v>
+        <v>1845.410930903096</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>290.4564109463977</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C25" t="n">
-        <v>121.5202280184908</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D25" t="n">
-        <v>66.51211643218342</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E25" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L25" t="n">
         <v>332.3555681596505</v>
@@ -6183,16 +6183,16 @@
         <v>920.8870058181849</v>
       </c>
       <c r="V25" t="n">
-        <v>920.8870058181849</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W25" t="n">
-        <v>920.8870058181849</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="X25" t="n">
-        <v>692.8974549201675</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="Y25" t="n">
-        <v>472.1048757766374</v>
+        <v>529.0179941377679</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2255.174438931364</v>
+        <v>1844.338003964586</v>
       </c>
       <c r="C26" t="n">
-        <v>1976.204921733553</v>
+        <v>1475.375487024174</v>
       </c>
       <c r="D26" t="n">
-        <v>1617.939223126803</v>
+        <v>1117.109788417424</v>
       </c>
       <c r="E26" t="n">
-        <v>1232.150970528558</v>
+        <v>731.3215358191796</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6250,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V26" t="n">
-        <v>2994.5429342656</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W26" t="n">
-        <v>2641.774278995485</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="X26" t="n">
-        <v>2641.774278995485</v>
+        <v>2621.07717600452</v>
       </c>
       <c r="Y26" t="n">
-        <v>2641.774278995485</v>
+        <v>2230.937844028708</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
         <v>176.0213023927779</v>
@@ -6302,7 +6302,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.51211643218342</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="C28" t="n">
-        <v>66.51211643218342</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="D28" t="n">
-        <v>66.51211643218342</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218342</v>
+        <v>359.5214126321441</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218342</v>
+        <v>212.6314651342338</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596505</v>
@@ -6411,25 +6411,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S28" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T28" t="n">
-        <v>920.8870058181849</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="U28" t="n">
-        <v>696.9427113039706</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="V28" t="n">
-        <v>696.9427113039706</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="W28" t="n">
-        <v>696.9427113039706</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="X28" t="n">
-        <v>468.9531604059532</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="Y28" t="n">
-        <v>248.1605812624231</v>
+        <v>507.4345062145372</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2005.586939522201</v>
+        <v>1959.241091287692</v>
       </c>
       <c r="C29" t="n">
-        <v>1636.624422581789</v>
+        <v>1590.27857434728</v>
       </c>
       <c r="D29" t="n">
-        <v>1278.358723975039</v>
+        <v>1232.01287574053</v>
       </c>
       <c r="E29" t="n">
-        <v>892.5704713767946</v>
+        <v>846.2246231422855</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>435.2387183526779</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
         <v>66.51211643218343</v>
@@ -6466,7 +6466,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329465</v>
@@ -6478,7 +6478,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
         <v>3018.302393296687</v>
@@ -6493,22 +6493,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>2866.09759726723</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V29" t="n">
-        <v>2866.09759726723</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W29" t="n">
-        <v>2765.652537847403</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X29" t="n">
-        <v>2392.186779586323</v>
+        <v>2345.840931351814</v>
       </c>
       <c r="Y29" t="n">
-        <v>2392.186779586323</v>
+        <v>2345.840931351814</v>
       </c>
     </row>
     <row r="30">
@@ -6536,28 +6536,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I30" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P30" t="n">
         <v>2407.411984886741</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>290.4564109463978</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C31" t="n">
-        <v>290.4564109463978</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D31" t="n">
-        <v>140.3397715340621</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
         <v>66.51211643218343</v>
@@ -6654,19 +6654,19 @@
         <v>920.887005818185</v>
       </c>
       <c r="U31" t="n">
-        <v>920.887005818185</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="V31" t="n">
-        <v>920.887005818185</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="W31" t="n">
-        <v>920.887005818185</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="X31" t="n">
-        <v>692.8974549201677</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="Y31" t="n">
-        <v>472.1048757766375</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1590.416669135309</v>
+        <v>2198.17958617321</v>
       </c>
       <c r="C32" t="n">
-        <v>1590.416669135309</v>
+        <v>1829.217069232798</v>
       </c>
       <c r="D32" t="n">
-        <v>1232.150970528558</v>
+        <v>1470.951370626048</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>1085.163118027803</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>674.1772132381959</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>259.1047630831924</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
         <v>66.5121164321834</v>
@@ -6727,25 +6727,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>3072.075344883006</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V32" t="n">
-        <v>3072.075344883006</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W32" t="n">
-        <v>2719.306689612892</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="X32" t="n">
-        <v>2345.840931351812</v>
+        <v>2588.318918149022</v>
       </c>
       <c r="Y32" t="n">
-        <v>1955.701599376001</v>
+        <v>2198.17958617321</v>
       </c>
     </row>
     <row r="33">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>66.5121164321834</v>
+        <v>410.6772566376941</v>
       </c>
       <c r="C34" t="n">
-        <v>66.5121164321834</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D34" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E34" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F34" t="n">
         <v>66.5121164321834</v>
@@ -6891,19 +6891,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U34" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V34" t="n">
-        <v>576.721865612674</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W34" t="n">
-        <v>287.3046955757135</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X34" t="n">
-        <v>287.3046955757135</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="Y34" t="n">
-        <v>66.5121164321834</v>
+        <v>410.6772566376941</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1859.132475219474</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C35" t="n">
-        <v>1490.169958279062</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D35" t="n">
-        <v>1131.904259672312</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E35" t="n">
-        <v>746.1160070740675</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F35" t="n">
-        <v>335.13010228446</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
         <v>66.5121164321834</v>
@@ -6946,16 +6946,16 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
@@ -6967,22 +6967,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U35" t="n">
-        <v>3009.337405520487</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V35" t="n">
-        <v>3009.337405520487</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W35" t="n">
-        <v>3009.337405520487</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X35" t="n">
-        <v>2635.871647259407</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y35" t="n">
-        <v>2245.732315283596</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="36">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>216.6287558445191</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="C37" t="n">
-        <v>216.6287558445191</v>
+        <v>751.950822890278</v>
       </c>
       <c r="D37" t="n">
-        <v>66.5121164321834</v>
+        <v>601.8341834779422</v>
       </c>
       <c r="E37" t="n">
-        <v>66.5121164321834</v>
+        <v>453.9210898955491</v>
       </c>
       <c r="F37" t="n">
-        <v>66.5121164321834</v>
+        <v>307.0311423976387</v>
       </c>
       <c r="G37" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
         <v>66.5121164321834</v>
@@ -7125,22 +7125,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T37" t="n">
-        <v>795.1487927558362</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U37" t="n">
-        <v>506.0459258814798</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V37" t="n">
-        <v>506.0459258814798</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W37" t="n">
-        <v>216.6287558445191</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X37" t="n">
-        <v>216.6287558445191</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y37" t="n">
-        <v>216.6287558445191</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2047.583838282732</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="C38" t="n">
-        <v>1678.62132134232</v>
+        <v>926.2736972002933</v>
       </c>
       <c r="D38" t="n">
-        <v>1320.35562273557</v>
+        <v>568.0079985935429</v>
       </c>
       <c r="E38" t="n">
-        <v>934.5673701373257</v>
+        <v>182.2197459952986</v>
       </c>
       <c r="F38" t="n">
-        <v>523.5814653477182</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G38" t="n">
         <v>108.5090151927147</v>
@@ -7174,10 +7174,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7204,22 +7204,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U38" t="n">
-        <v>3142.251815863195</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>2811.188928519624</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W38" t="n">
-        <v>2811.188928519624</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X38" t="n">
-        <v>2437.723170258544</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y38" t="n">
-        <v>2047.583838282732</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="39">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>511.4317969248226</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="C40" t="n">
-        <v>511.4317969248226</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D40" t="n">
-        <v>361.3151575124868</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E40" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F40" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G40" t="n">
         <v>66.5121164321834</v>
@@ -7362,22 +7362,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T40" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U40" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V40" t="n">
-        <v>913.8728408985925</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W40" t="n">
-        <v>913.8728408985925</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="X40" t="n">
-        <v>913.8728408985925</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="Y40" t="n">
-        <v>693.0802617550623</v>
+        <v>699.1203903877109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1712.341567565138</v>
+        <v>1363.124011696101</v>
       </c>
       <c r="C41" t="n">
-        <v>1343.379050624726</v>
+        <v>994.1614947556893</v>
       </c>
       <c r="D41" t="n">
-        <v>985.1133520179758</v>
+        <v>635.8957961489389</v>
       </c>
       <c r="E41" t="n">
-        <v>599.3250994197315</v>
+        <v>250.1075435506946</v>
       </c>
       <c r="F41" t="n">
-        <v>188.3391946301239</v>
+        <v>250.1075435506946</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>250.1075435506946</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912088</v>
@@ -7435,28 +7435,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U41" t="n">
-        <v>3215.315153136266</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V41" t="n">
-        <v>3215.315153136266</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W41" t="n">
-        <v>2862.546497866151</v>
+        <v>2513.328941997114</v>
       </c>
       <c r="X41" t="n">
-        <v>2489.080739605071</v>
+        <v>2139.863183736034</v>
       </c>
       <c r="Y41" t="n">
-        <v>2098.94140762926</v>
+        <v>1749.723851760223</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>680.3679798527295</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="C43" t="n">
-        <v>511.4317969248226</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="D43" t="n">
-        <v>361.3151575124869</v>
+        <v>481.6674995314927</v>
       </c>
       <c r="E43" t="n">
-        <v>213.4020639300938</v>
+        <v>481.6674995314927</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218342</v>
+        <v>334.7775520335823</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L43" t="n">
         <v>332.3555681596505</v>
@@ -7599,22 +7599,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T43" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U43" t="n">
-        <v>699.1203903877109</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V43" t="n">
-        <v>680.3679798527295</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W43" t="n">
-        <v>680.3679798527295</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="X43" t="n">
-        <v>680.3679798527295</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="Y43" t="n">
-        <v>680.3679798527295</v>
+        <v>631.7841389438285</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1661.795585684488</v>
+        <v>1811.579746109088</v>
       </c>
       <c r="C44" t="n">
-        <v>1292.833068744076</v>
+        <v>1442.617229168676</v>
       </c>
       <c r="D44" t="n">
-        <v>934.5673701373257</v>
+        <v>1442.617229168676</v>
       </c>
       <c r="E44" t="n">
-        <v>934.5673701373257</v>
+        <v>1056.828976570432</v>
       </c>
       <c r="F44" t="n">
-        <v>523.5814653477182</v>
+        <v>645.8430717808246</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H44" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7660,40 +7660,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U44" t="n">
-        <v>3072.075344883006</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V44" t="n">
-        <v>2741.012457539435</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W44" t="n">
-        <v>2388.243802269321</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="X44" t="n">
-        <v>2051.9349176603</v>
+        <v>2588.318918149022</v>
       </c>
       <c r="Y44" t="n">
-        <v>1661.795585684488</v>
+        <v>2198.17958617321</v>
       </c>
     </row>
     <row r="45">
@@ -7718,22 +7718,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7742,10 +7742,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>403.4802848832062</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="C46" t="n">
-        <v>234.5441019552993</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="D46" t="n">
-        <v>214.4252100145765</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218339</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218339</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L46" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R46" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S46" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T46" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U46" t="n">
-        <v>920.8870058181842</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V46" t="n">
-        <v>920.8870058181842</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W46" t="n">
-        <v>631.4698357812235</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="X46" t="n">
-        <v>403.4802848832062</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="Y46" t="n">
-        <v>403.4802848832062</v>
+        <v>631.7841389438285</v>
       </c>
     </row>
   </sheetData>
@@ -22555,13 +22555,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>216.7578328961673</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753916</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637382</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -22600,19 +22600,19 @@
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988691</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W2" t="n">
         <v>161.7153815510931</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>204.5585635023746</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22631,19 +22631,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>2.902568490977785</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>58.90455890409149</v>
@@ -22676,22 +22676,22 @@
         <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V3" t="n">
         <v>45.2749999831054</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>40.60044802738304</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22749,13 +22749,13 @@
         <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>16.47009429716292</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>154.5643095410618</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>195.2082544971607</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,19 +22792,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059421</v>
       </c>
       <c r="F5" t="n">
-        <v>219.3504585753916</v>
+        <v>219.3504585753918</v>
       </c>
       <c r="G5" t="n">
-        <v>225.5722460637382</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H5" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,13 +22831,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>77.0817190166639</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4438810562068</v>
+        <v>48.27134388011248</v>
       </c>
       <c r="U5" t="n">
         <v>251.1692605650303</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121494</v>
       </c>
       <c r="Y5" t="n">
-        <v>298.1471204966228</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22874,19 +22874,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>57.31271859124226</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>58.9045589040915</v>
+        <v>58.90455890409152</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265842</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,10 +22910,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.43289562846321</v>
+        <v>72.43289562846324</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
         <v>195.4095977920013</v>
@@ -22922,16 +22922,16 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310563</v>
       </c>
       <c r="W6" t="n">
-        <v>64.16939599459974</v>
+        <v>64.16939599459997</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715784</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>55.8893796338686</v>
       </c>
     </row>
     <row r="7">
@@ -22965,10 +22965,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>57.06999962825419</v>
+        <v>57.06999962825422</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402855</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,10 +22983,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709389</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.68604055159727</v>
+        <v>16.47009429716327</v>
       </c>
       <c r="R7" t="n">
         <v>132.8223696106904</v>
@@ -22998,7 +22998,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U7" t="n">
-        <v>234.049135239016</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,19 +23029,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>225.5722460637384</v>
       </c>
       <c r="H8" t="n">
-        <v>48.87259023368844</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>96.6032889205099</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>140.2266713038153</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>100.2346469980766</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>58.90455890409152</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>72.43289562846324</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>60.69123123399663</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>45.27499998310563</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>64.16939599459997</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>18.24739803715784</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>57.06999962825422</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,25 +23220,25 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>68.6860405515973</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>66.22175214206376</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>199.921697069394</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>170.0814561288834</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,16 +23314,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>268.7291653228044</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>145.0671476329186</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>130.6519436655637</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>44.26266055433831</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>229.1728693664389</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23709,19 +23709,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>119.0282071475819</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>14.02380761802718</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>355.9549289781763</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>277.8732048454929</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>72.66698746754824</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -23946,16 +23946,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>267.2546327163408</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23974,19 +23974,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>365.0538566097287</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>301.4434764528029</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -24189,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>230.8439550265474</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>102.8009878517094</v>
       </c>
     </row>
     <row r="23">
@@ -24214,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>130.3863645429413</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>191.5701663761618</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>94.15744254776808</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24423,16 +24423,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>150.7103200968062</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>89.09306974517534</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>159.6364462020387</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,13 +24609,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>21.36765304399839</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24651,13 +24651,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>64.50698663654069</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24666,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>382.0670839124103</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,7 +24742,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>249.8003598917838</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>73.34458409570932</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24894,7 +24894,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>227.9299826817493</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24903,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>21.10176072519585</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>103.9410442028216</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
@@ -24979,7 +24979,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>120.5598533363159</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25131,10 +25131,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>197.6259927259851</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>186.5668494326256</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>108.8976542956631</v>
       </c>
     </row>
     <row r="36">
@@ -25314,22 +25314,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>72.66698746754824</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25365,16 +25365,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>95.06811834444402</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25402,10 +25402,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>333.9024222471533</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -25444,19 +25444,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>178.6624680585623</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>2.03987380646538</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,10 +25560,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25602,13 +25602,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>245.1936200534315</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25639,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>331.8898480104183</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>112.8482915399944</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25788,22 +25788,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>45.19804192796411</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25839,13 +25839,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>233.5727568941964</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>173.5687740185451</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>36.78530491553795</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>128.6977699968968</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>43.01653155632086</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -26079,16 +26079,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>424931.0936061951</v>
+        <v>424931.0936061952</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>424931.0936061952</v>
+        <v>424931.0936061951</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>658545.8706526515</v>
+        <v>424931.0936061948</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>839054.4922903114</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903114</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903114</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903114</v>
       </c>
     </row>
   </sheetData>
@@ -26316,37 +26316,37 @@
         <v>158307.6623238765</v>
       </c>
       <c r="C2" t="n">
-        <v>158307.6623238766</v>
+        <v>158307.6623238765</v>
       </c>
       <c r="D2" t="n">
-        <v>245340.6184784386</v>
+        <v>158307.6623238765</v>
       </c>
       <c r="E2" t="n">
-        <v>312588.9285003116</v>
+        <v>312588.9285003119</v>
       </c>
       <c r="F2" t="n">
-        <v>312588.928500312</v>
+        <v>312588.9285003119</v>
       </c>
       <c r="G2" t="n">
-        <v>312588.9285003116</v>
+        <v>312588.9285003117</v>
       </c>
       <c r="H2" t="n">
         <v>312588.9285003118</v>
       </c>
       <c r="I2" t="n">
-        <v>312588.9285003117</v>
+        <v>312588.9285003118</v>
       </c>
       <c r="J2" t="n">
-        <v>312588.9285003119</v>
+        <v>312588.9285003118</v>
       </c>
       <c r="K2" t="n">
         <v>312588.9285003118</v>
       </c>
       <c r="L2" t="n">
-        <v>312588.9285003117</v>
+        <v>312588.9285003119</v>
       </c>
       <c r="M2" t="n">
-        <v>312588.9285003117</v>
+        <v>312588.9285003118</v>
       </c>
       <c r="N2" t="n">
         <v>312588.9285003118</v>
@@ -26355,7 +26355,7 @@
         <v>312588.9285003117</v>
       </c>
       <c r="P2" t="n">
-        <v>312588.9285003117</v>
+        <v>312588.9285003116</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>371558.5249487662</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>276030.7457669097</v>
+        <v>627134.6436336681</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854456</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>89743.37813127026</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>72091.35261608608</v>
+        <v>160456.4418678775</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>137.800118072334</v>
       </c>
       <c r="C4" t="n">
-        <v>137.8001180723339</v>
+        <v>137.8001180723338</v>
       </c>
       <c r="D4" t="n">
-        <v>384.3219252469136</v>
+        <v>137.8001180723338</v>
       </c>
       <c r="E4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="F4" t="n">
         <v>584.6469890061231</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061228</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="H4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="I4" t="n">
         <v>584.6469890061231</v>
@@ -26450,7 +26450,7 @@
         <v>584.6469890061231</v>
       </c>
       <c r="M4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="N4" t="n">
         <v>584.6469890061231</v>
@@ -26459,7 +26459,7 @@
         <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>584.6469890061228</v>
+        <v>584.6469890061231</v>
       </c>
     </row>
     <row r="5">
@@ -26472,28 +26472,28 @@
         <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161354</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>56985.80041161354</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="G5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="G5" t="n">
-        <v>74306.34056139327</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
         <v>74306.3405613933</v>
@@ -26508,10 +26508,10 @@
         <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-502366.9027456894</v>
+        <v>-491392.2469285582</v>
       </c>
       <c r="C6" t="n">
-        <v>88989.99977515603</v>
+        <v>99964.6555922875</v>
       </c>
       <c r="D6" t="n">
-        <v>-219414.6903676097</v>
+        <v>99964.65559228715</v>
       </c>
       <c r="E6" t="n">
-        <v>-42406.80019516712</v>
+        <v>-389844.1022215725</v>
       </c>
       <c r="F6" t="n">
-        <v>233623.9455717427</v>
+        <v>237290.5414120955</v>
       </c>
       <c r="G6" t="n">
-        <v>233623.945571743</v>
+        <v>237290.5414120953</v>
       </c>
       <c r="H6" t="n">
-        <v>233623.9455717427</v>
+        <v>237290.5414120954</v>
       </c>
       <c r="I6" t="n">
-        <v>233623.9455717425</v>
+        <v>237290.5414120954</v>
       </c>
       <c r="J6" t="n">
-        <v>184559.0008431983</v>
+        <v>188225.5966835508</v>
       </c>
       <c r="K6" t="n">
-        <v>233623.9455717427</v>
+        <v>237290.5414120954</v>
       </c>
       <c r="L6" t="n">
-        <v>143880.5674404725</v>
+        <v>237290.5414120955</v>
       </c>
       <c r="M6" t="n">
-        <v>161532.5929556566</v>
+        <v>76834.09954421794</v>
       </c>
       <c r="N6" t="n">
-        <v>233623.9455717427</v>
+        <v>237290.5414120954</v>
       </c>
       <c r="O6" t="n">
-        <v>233623.9455717427</v>
+        <v>237290.5414120953</v>
       </c>
       <c r="P6" t="n">
-        <v>233623.945571743</v>
+        <v>237290.5414120952</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26792,28 +26792,28 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261633</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022929</v>
@@ -26828,10 +26828,10 @@
         <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>305.2407236247797</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>236.0660360556139</v>
+        <v>541.3067596803941</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>354.5893695598435</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>289.2864986761291</v>
+        <v>643.8758682359733</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598431</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761291</v>
+        <v>643.8758682359733</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598435</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761291</v>
+        <v>643.8758682359733</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672891</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622679</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31363,43 +31363,43 @@
         <v>11.39368688575675</v>
       </c>
       <c r="I6" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628872</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q6" t="n">
         <v>150.5912184936714</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S6" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820368</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639161</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K7" t="n">
         <v>114.9089482765068</v>
       </c>
       <c r="L7" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M7" t="n">
         <v>155.0371670682165</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P7" t="n">
         <v>119.6203949820537</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647909</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S7" t="n">
         <v>17.23634224147602</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987499</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33672,7 +33672,7 @@
         <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.151212309905</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
         <v>629.9949819746414</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987499</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868023</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973019</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405811</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656915984</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L6" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N6" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848228</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855691</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646075</v>
+        <v>12.15921574646066</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061149</v>
+        <v>16.11138312061144</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520823</v>
+        <v>23.66518529520815</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400495</v>
+        <v>1.340357307400438</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>12.15921574646066</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>16.11138312061144</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>23.66518529520815</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>1.340357307400438</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O13" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222479</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127284</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M19" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K22" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M22" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O22" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882182</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127284</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K46" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M46" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N46" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O46" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
